--- a/biology/Neurosciences/National_Hospital_for_Neurology_and_Neurosurgery/National_Hospital_for_Neurology_and_Neurosurgery.xlsx
+++ b/biology/Neurosciences/National_Hospital_for_Neurology_and_Neurosurgery/National_Hospital_for_Neurology_and_Neurosurgery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le National Hospital for Neurology and Neurosurgery (NHNN) est l'hôpital neurologique et neurochirurgical national du Royaume-Uni. Il fut en 1859 le premier hôpital d'Angleterre à être exclusivement consacré au traitement des maladies du système nerveux. Il se trouve à Queen Square dans le district de Camden à Londres. Il est plus communément désigné comme le « National » ou de façon  moins appropriée « Queen Square ».
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est fondé en 1859 et a d'abord pour nom : hôpital national des maladies du système nerveux y compris la paralysie et l'épilepsie (The National Hospital for Diseases of the Nervous System including Paralysis and Epilepsy). Il fusionna en 1948 avec le Maida Vale Hospital for Nervous Diseases. Les plus grands neurologues britanniques ont exercé au National parmi lesquels John Hughlings Jackson, David Ferrier, MacDonald Critchley, Charles-Édouard Brown-Séquard, William Allen Sturge, Sir Roger Bannister et beaucoup d'autres.
 </t>
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Site officiel
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « National Hospital for Neurology and Neurosurgery » (voir la liste des auteurs).
  Portail de la médecine   Portail des neurosciences   Portail de Londres                   </t>
